--- a/output/StructureDefinition-response-evaluation.xlsx
+++ b/output/StructureDefinition-response-evaluation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T11:28:20+02:00</t>
+    <t>2023-03-28T11:43:34+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-response-evaluation.xlsx
+++ b/output/StructureDefinition-response-evaluation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T11:43:34+02:00</t>
+    <t>2023-03-28T12:16:37+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-response-evaluation.xlsx
+++ b/output/StructureDefinition-response-evaluation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T18:12:15+02:00</t>
+    <t>2023-04-06T19:36:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-response-evaluation.xlsx
+++ b/output/StructureDefinition-response-evaluation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T19:36:35+02:00</t>
+    <t>2023-04-10T11:48:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-response-evaluation.xlsx
+++ b/output/StructureDefinition-response-evaluation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-10T11:48:35+02:00</t>
+    <t>2023-04-12T16:34:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-response-evaluation.xlsx
+++ b/output/StructureDefinition-response-evaluation.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$53</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T16:34:31+02:00</t>
+    <t>2023-04-14T09:19:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -524,7 +527,7 @@
     <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
   </si>
   <si>
-    <t>ResponseEvaluation.Treatment_Ref</t>
+    <t>OSIRIS_pivot_ResponseEvaluation.ResponseEvaluation.Treatment_Ref</t>
   </si>
   <si>
     <t>Observation.partOf</t>
@@ -712,7 +715,7 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
-    <t>ResponseEvaluation.Patient_Identifier</t>
+    <t>OSIRIS_pivot_ResponseEvaluation.ResponseEvaluation.Patient_Identifier</t>
   </si>
   <si>
     <t>Observation.focus</t>
@@ -776,8 +779,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -796,7 +799,7 @@
 </t>
   </si>
   <si>
-    <t>open</t>
+    <t>closed</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -814,14 +817,13 @@
     <t>effectiveDateTime</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Date of assessment of treatment response</t>
-  </si>
-  <si>
-    <t>ResponseEvaluation.Date</t>
+    <t>Date of assessment</t>
+  </si>
+  <si>
+    <t>Date of assessement of treatment response</t>
+  </si>
+  <si>
+    <t>OSIRIS_pivot_ResponseEvaluation.ResponseEvaluation.Date</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -880,10 +882,10 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Assessment of treatment response</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+    <t>Evaluation Status</t>
+  </si>
+  <si>
+    <t>Treatment response evaluation status</t>
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -893,9 +895,6 @@
   </si>
   <si>
     <t>https://build.fhir.org/ig/arkhn/arkhn-ig-osiris/ValueSet/ResponseEvaluationStatus</t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -920,7 +919,10 @@
     <t>Actual result</t>
   </si>
   <si>
-    <t>ResponseEvaluation.Status</t>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+  </si>
+  <si>
+    <t>OSIRIS_pivot_ResponseEvaluation.ResponseEvaluation.Status</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1579,6 +1581,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1936,7 +1953,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
@@ -2056,7 +2073,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>88</v>
       </c>
@@ -2176,7 +2193,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>96</v>
       </c>
@@ -2294,7 +2311,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>102</v>
       </c>
@@ -2414,7 +2431,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>108</v>
       </c>
@@ -2534,7 +2551,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>117</v>
       </c>
@@ -2654,7 +2671,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>125</v>
       </c>
@@ -2774,7 +2791,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>133</v>
       </c>
@@ -2894,7 +2911,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>141</v>
       </c>
@@ -3016,7 +3033,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>146</v>
       </c>
@@ -3136,7 +3153,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>155</v>
       </c>
@@ -3256,7 +3273,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>165</v>
       </c>
@@ -3376,7 +3393,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>174</v>
       </c>
@@ -3498,7 +3515,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>187</v>
       </c>
@@ -3620,7 +3637,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>197</v>
       </c>
@@ -3758,7 +3775,7 @@
         <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
@@ -3864,7 +3881,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>224</v>
       </c>
@@ -3984,7 +4001,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>230</v>
       </c>
@@ -4106,7 +4123,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>241</v>
       </c>
@@ -4116,7 +4133,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>89</v>
@@ -4238,13 +4255,13 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -4253,13 +4270,13 @@
         <v>90</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>246</v>
@@ -4350,7 +4367,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>258</v>
       </c>
@@ -4470,7 +4487,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>266</v>
       </c>
@@ -4590,7 +4607,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>275</v>
       </c>
@@ -4606,7 +4623,7 @@
         <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4669,7 +4686,7 @@
         <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>275</v>
@@ -4681,7 +4698,7 @@
         <v>89</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>101</v>
@@ -4690,30 +4707,30 @@
         <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AN24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>275</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>80</v>
@@ -4738,10 +4755,10 @@
         <v>188</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>278</v>
@@ -4805,7 +4822,7 @@
         <v>89</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>101</v>
@@ -4814,25 +4831,25 @@
         <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>289</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>290</v>
       </c>
@@ -4954,7 +4971,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>300</v>
       </c>
@@ -5076,7 +5093,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>312</v>
       </c>
@@ -5198,7 +5215,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>320</v>
       </c>
@@ -5318,7 +5335,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>330</v>
       </c>
@@ -5440,7 +5457,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>339</v>
       </c>
@@ -5560,7 +5577,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>348</v>
       </c>
@@ -5680,7 +5697,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>357</v>
       </c>
@@ -5802,7 +5819,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>366</v>
       </c>
@@ -5920,7 +5937,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>372</v>
       </c>
@@ -6040,7 +6057,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>375</v>
       </c>
@@ -6162,7 +6179,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>380</v>
       </c>
@@ -6280,7 +6297,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>387</v>
       </c>
@@ -6398,7 +6415,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>391</v>
       </c>
@@ -6520,7 +6537,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>400</v>
       </c>
@@ -6642,7 +6659,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>407</v>
       </c>
@@ -6762,7 +6779,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>413</v>
       </c>
@@ -6880,7 +6897,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>417</v>
       </c>
@@ -7000,7 +7017,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>424</v>
       </c>
@@ -7120,7 +7137,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>430</v>
       </c>
@@ -7242,7 +7259,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>437</v>
       </c>
@@ -7360,7 +7377,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>438</v>
       </c>
@@ -7480,7 +7497,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>439</v>
       </c>
@@ -7602,7 +7619,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>440</v>
       </c>
@@ -7724,7 +7741,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>445</v>
       </c>
@@ -7755,7 +7772,7 @@
         <v>447</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>448</v>
@@ -7831,22 +7848,22 @@
         <v>449</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AN50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="AP50" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
         <v>450</v>
       </c>
@@ -7968,7 +7985,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>454</v>
       </c>
@@ -8090,7 +8107,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>455</v>
       </c>
@@ -8213,6 +8230,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AP53">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI52">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/output/StructureDefinition-response-evaluation.xlsx
+++ b/output/StructureDefinition-response-evaluation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:19:10+02:00</t>
+    <t>2023-04-25T09:25:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-response-evaluation.xlsx
+++ b/output/StructureDefinition-response-evaluation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T09:25:14+02:00</t>
+    <t>2023-05-04T10:39:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-response-evaluation.xlsx
+++ b/output/StructureDefinition-response-evaluation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T10:39:35+02:00</t>
+    <t>2023-05-04T16:19:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-response-evaluation.xlsx
+++ b/output/StructureDefinition-response-evaluation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T16:19:38+02:00</t>
+    <t>2023-05-04T17:29:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
